--- a/Spring_25/CS2110/hw02/kmap.xlsx
+++ b/Spring_25/CS2110/hw02/kmap.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prabhavgupta/Documents/workspace/CS2110/HW-StateMachines/student/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasstone/Documents/Georgia_Tech/Spring_25/CS2110/hw02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5559BC4-2FFA-4A1A-A46F-50B8F3BED073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E1693C-16D2-0E40-B031-700F68F30D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="760" windowWidth="21960" windowHeight="15880" xr2:uid="{E669F371-B88B-4909-8EAE-8F389B6E16B2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{E669F371-B88B-4909-8EAE-8F389B6E16B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>N1</t>
   </si>
@@ -84,13 +84,26 @@
   </si>
   <si>
     <t>&lt;--- write groupings for C here</t>
+  </si>
+  <si>
+    <t>M1S0'M0'S1</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>M1'M0+M0S0'M1'S1</t>
+  </si>
+  <si>
+    <t>M0S1'M1+M0'M1'
+S0+S0'M0'S1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +187,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,9 +225,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -239,7 +265,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -345,7 +371,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,19 +521,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F6CD62-9EA1-4796-8420-5C827DF2B464}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,48 +549,117 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -580,48 +675,117 @@
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -637,48 +801,117 @@
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -694,46 +927,175 @@
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Spring_25/CS2110/hw02/kmap.xlsx
+++ b/Spring_25/CS2110/hw02/kmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasstone/Documents/Georgia_Tech/Spring_25/CS2110/hw02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E1693C-16D2-0E40-B031-700F68F30D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305BF89B-7BC1-7D4A-A79A-AA66E96E0F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{E669F371-B88B-4909-8EAE-8F389B6E16B2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>N1</t>
   </si>
@@ -86,17 +86,16 @@
     <t>&lt;--- write groupings for C here</t>
   </si>
   <si>
-    <t>M1S0'M0'S1</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>M1'M0+M0S0'M1'S1</t>
-  </si>
-  <si>
-    <t>M0S1'M1+M0'M1'
-S0+S0'M0'S1</t>
+    <t>M1S1'+S1'S0M0</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S1'S0M0'+S1'S0'M0</t>
   </si>
 </sst>
 </file>
@@ -112,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +128,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -187,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -205,6 +210,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -523,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F6CD62-9EA1-4796-8420-5C827DF2B464}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G20"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -551,7 +565,7 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -563,16 +577,16 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
         <v>0</v>
       </c>
       <c r="F2" s="2"/>
@@ -585,16 +599,16 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="2"/>
@@ -607,17 +621,17 @@
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -629,17 +643,17 @@
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -659,7 +673,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -689,16 +703,16 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
         <v>0</v>
       </c>
       <c r="F8" s="2"/>
@@ -711,17 +725,17 @@
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -733,17 +747,17 @@
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -755,16 +769,16 @@
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
         <v>0</v>
       </c>
       <c r="F11" s="2"/>
@@ -815,17 +829,17 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -837,17 +851,17 @@
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -859,17 +873,17 @@
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>17</v>
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -881,16 +895,16 @@
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
         <v>1</v>
       </c>
       <c r="F17" s="2"/>
@@ -929,7 +943,7 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>15</v>
@@ -941,16 +955,16 @@
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
         <v>0</v>
       </c>
       <c r="F20" s="2"/>
@@ -963,16 +977,16 @@
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
         <v>0</v>
       </c>
       <c r="F21" s="2"/>
@@ -985,17 +999,17 @@
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>17</v>
+      <c r="B22" s="9">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1007,16 +1021,16 @@
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="6">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
         <v>0</v>
       </c>
       <c r="F23" s="2"/>
